--- a/BalanceSheet/MRNA_bal.xlsx
+++ b/BalanceSheet/MRNA_bal.xlsx
@@ -785,19 +785,19 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>-1758000.0</v>
+        <v>18000000.0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>2160000.0</v>
+        <v>21000000.0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>9142000.0</v>
+        <v>19000000.0</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>2331000.0</v>
+        <v>11000000.0</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>-4779000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>11737000.0</v>
